--- a/data/canadaTextParsing/Committees/raw_canada_committees.xlsx
+++ b/data/canadaTextParsing/Committees/raw_canada_committees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/CompLegFall2019/data/canadaTextParsing/Committees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C08E44-756C-C04C-8B70-584ADD0C9212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB8000A-4839-DB4A-AE29-3EF409C07A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B129604F-D76E-4A4F-B5C6-13C100CF8C29}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{B129604F-D76E-4A4F-B5C6-13C100CF8C29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="103">
   <si>
     <t>parliament_number</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Procedure and House Affairs</t>
   </si>
   <si>
-    <t>PNNR</t>
-  </si>
-  <si>
     <t>Natural Resources</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>Legislative Committees</t>
   </si>
   <si>
-    <t>BiLI</t>
-  </si>
-  <si>
     <t>AFGH</t>
   </si>
   <si>
@@ -343,6 +337,9 @@
   </si>
   <si>
     <t>session_number</t>
+  </si>
+  <si>
+    <t>RNNR</t>
   </si>
 </sst>
 </file>
@@ -715,7 +712,7 @@
   <dimension ref="A1:G261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E257" sqref="E257"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,22 +731,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -772,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -795,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -818,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -841,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -864,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -887,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -910,7 +907,7 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -933,7 +930,7 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -956,7 +953,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -979,7 +976,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1002,7 +999,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1025,7 +1022,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1048,7 +1045,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1071,7 +1068,7 @@
         <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1094,7 +1091,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1117,7 +1114,7 @@
         <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1140,7 +1137,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1163,7 +1160,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1186,7 +1183,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1209,7 +1206,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1232,7 +1229,7 @@
         <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1249,13 +1246,13 @@
         <v>43719</v>
       </c>
       <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
       </c>
-      <c r="F23" t="s">
-        <v>44</v>
-      </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1272,13 +1269,13 @@
         <v>43719</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
       </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1295,13 +1292,13 @@
         <v>43719</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
       </c>
-      <c r="F25" t="s">
-        <v>50</v>
-      </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1318,13 +1315,13 @@
         <v>43719</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
       </c>
-      <c r="F26" t="s">
-        <v>52</v>
-      </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1341,13 +1338,13 @@
         <v>43719</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>54</v>
-      </c>
-      <c r="G27" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1364,13 +1361,13 @@
         <v>43719</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1387,13 +1384,13 @@
         <v>43719</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1410,13 +1407,13 @@
         <v>43719</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1433,13 +1430,13 @@
         <v>43719</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1456,13 +1453,13 @@
         <v>42218</v>
       </c>
       <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
         <v>68</v>
       </c>
-      <c r="F32" t="s">
-        <v>69</v>
-      </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1485,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1508,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1531,7 +1528,7 @@
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1554,7 +1551,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1577,7 +1574,7 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1600,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1623,7 +1620,7 @@
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1646,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1669,7 +1666,7 @@
         <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1692,7 +1689,7 @@
         <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1715,7 +1712,7 @@
         <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1738,7 +1735,7 @@
         <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1761,7 +1758,7 @@
         <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1784,7 +1781,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1807,7 +1804,7 @@
         <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1830,7 +1827,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1853,7 +1850,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1876,7 +1873,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1899,7 +1896,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1922,7 +1919,7 @@
         <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1939,13 +1936,13 @@
         <v>42218</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>43</v>
       </c>
-      <c r="F53" t="s">
-        <v>44</v>
-      </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1962,13 +1959,13 @@
         <v>42218</v>
       </c>
       <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" t="s">
         <v>47</v>
       </c>
-      <c r="F54" t="s">
-        <v>48</v>
-      </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1985,13 +1982,13 @@
         <v>42218</v>
       </c>
       <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" t="s">
         <v>49</v>
       </c>
-      <c r="F55" t="s">
-        <v>50</v>
-      </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2008,13 +2005,13 @@
         <v>42218</v>
       </c>
       <c r="E56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" t="s">
         <v>70</v>
       </c>
-      <c r="F56" t="s">
-        <v>71</v>
-      </c>
       <c r="G56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2031,13 +2028,13 @@
         <v>42218</v>
       </c>
       <c r="E57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2054,13 +2051,13 @@
         <v>42218</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2077,13 +2074,13 @@
         <v>42218</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2100,13 +2097,13 @@
         <v>41530</v>
       </c>
       <c r="E60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" t="s">
         <v>68</v>
       </c>
-      <c r="F60" t="s">
-        <v>69</v>
-      </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2129,7 +2126,7 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2152,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2175,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2198,7 +2195,7 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2221,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2244,7 +2241,7 @@
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2267,7 +2264,7 @@
         <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2290,7 +2287,7 @@
         <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2313,7 +2310,7 @@
         <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2336,7 +2333,7 @@
         <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2359,7 +2356,7 @@
         <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2382,7 +2379,7 @@
         <v>24</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2405,7 +2402,7 @@
         <v>26</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2428,7 +2425,7 @@
         <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2451,7 +2448,7 @@
         <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2474,7 +2471,7 @@
         <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2497,7 +2494,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2520,7 +2517,7 @@
         <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2543,7 +2540,7 @@
         <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2566,7 +2563,7 @@
         <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2583,13 +2580,13 @@
         <v>41530</v>
       </c>
       <c r="E81" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" t="s">
         <v>43</v>
       </c>
-      <c r="F81" t="s">
-        <v>44</v>
-      </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2606,13 +2603,13 @@
         <v>41530</v>
       </c>
       <c r="E82" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" t="s">
         <v>47</v>
       </c>
-      <c r="F82" t="s">
-        <v>48</v>
-      </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2629,13 +2626,13 @@
         <v>41530</v>
       </c>
       <c r="E83" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83" t="s">
         <v>49</v>
       </c>
-      <c r="F83" t="s">
-        <v>50</v>
-      </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2652,13 +2649,13 @@
         <v>41530</v>
       </c>
       <c r="E84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" t="s">
         <v>72</v>
       </c>
-      <c r="F84" t="s">
-        <v>73</v>
-      </c>
       <c r="G84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2675,13 +2672,13 @@
         <v>41530</v>
       </c>
       <c r="E85" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" t="s">
         <v>70</v>
       </c>
-      <c r="F85" t="s">
-        <v>71</v>
-      </c>
       <c r="G85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2698,13 +2695,13 @@
         <v>41530</v>
       </c>
       <c r="E86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2721,13 +2718,13 @@
         <v>41530</v>
       </c>
       <c r="E87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F87" t="s">
+        <v>76</v>
+      </c>
+      <c r="G87" t="s">
         <v>77</v>
-      </c>
-      <c r="G87" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2744,13 +2741,13 @@
         <v>41530</v>
       </c>
       <c r="E88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2767,13 +2764,13 @@
         <v>41530</v>
       </c>
       <c r="E89" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2790,13 +2787,13 @@
         <v>41530</v>
       </c>
       <c r="E90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2813,13 +2810,13 @@
         <v>40628</v>
       </c>
       <c r="E91" t="s">
+        <v>67</v>
+      </c>
+      <c r="F91" t="s">
         <v>68</v>
       </c>
-      <c r="F91" t="s">
-        <v>69</v>
-      </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2842,7 +2839,7 @@
         <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -2865,7 +2862,7 @@
         <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2888,7 +2885,7 @@
         <v>6</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2911,7 +2908,7 @@
         <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -2934,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -2957,7 +2954,7 @@
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -2980,7 +2977,7 @@
         <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -3003,7 +3000,7 @@
         <v>16</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -3026,7 +3023,7 @@
         <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -3049,7 +3046,7 @@
         <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -3072,7 +3069,7 @@
         <v>22</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -3095,7 +3092,7 @@
         <v>24</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -3118,7 +3115,7 @@
         <v>26</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -3141,7 +3138,7 @@
         <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -3164,7 +3161,7 @@
         <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -3187,7 +3184,7 @@
         <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -3210,7 +3207,7 @@
         <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -3233,7 +3230,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -3256,7 +3253,7 @@
         <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3279,7 +3276,7 @@
         <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -3296,13 +3293,13 @@
         <v>40628</v>
       </c>
       <c r="E112" t="s">
+        <v>102</v>
+      </c>
+      <c r="F112" t="s">
         <v>43</v>
       </c>
-      <c r="F112" t="s">
-        <v>44</v>
-      </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -3319,13 +3316,13 @@
         <v>40628</v>
       </c>
       <c r="E113" t="s">
+        <v>46</v>
+      </c>
+      <c r="F113" t="s">
         <v>47</v>
       </c>
-      <c r="F113" t="s">
-        <v>48</v>
-      </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -3342,13 +3339,13 @@
         <v>40628</v>
       </c>
       <c r="E114" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114" t="s">
         <v>49</v>
       </c>
-      <c r="F114" t="s">
-        <v>50</v>
-      </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -3365,13 +3362,13 @@
         <v>40628</v>
       </c>
       <c r="E115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -3388,13 +3385,13 @@
         <v>40628</v>
       </c>
       <c r="E116" t="s">
+        <v>80</v>
+      </c>
+      <c r="F116" t="s">
         <v>82</v>
       </c>
-      <c r="F116" t="s">
-        <v>84</v>
-      </c>
       <c r="G116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -3411,13 +3408,13 @@
         <v>40628</v>
       </c>
       <c r="E117" t="s">
+        <v>81</v>
+      </c>
+      <c r="F117" t="s">
         <v>83</v>
       </c>
-      <c r="F117" t="s">
-        <v>85</v>
-      </c>
       <c r="G117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -3434,13 +3431,13 @@
         <v>40628</v>
       </c>
       <c r="E118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -3457,13 +3454,13 @@
         <v>40628</v>
       </c>
       <c r="E119" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F119" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G119" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -3480,13 +3477,13 @@
         <v>40628</v>
       </c>
       <c r="E120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F120" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G120" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -3503,13 +3500,13 @@
         <v>40177</v>
       </c>
       <c r="E121" t="s">
+        <v>67</v>
+      </c>
+      <c r="F121" t="s">
         <v>68</v>
       </c>
-      <c r="F121" t="s">
-        <v>69</v>
-      </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -3532,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -3555,7 +3552,7 @@
         <v>4</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -3578,7 +3575,7 @@
         <v>6</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -3601,7 +3598,7 @@
         <v>8</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -3624,7 +3621,7 @@
         <v>10</v>
       </c>
       <c r="G126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -3647,7 +3644,7 @@
         <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -3670,7 +3667,7 @@
         <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -3693,7 +3690,7 @@
         <v>16</v>
       </c>
       <c r="G129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -3716,7 +3713,7 @@
         <v>18</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -3739,7 +3736,7 @@
         <v>20</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -3762,7 +3759,7 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -3785,7 +3782,7 @@
         <v>24</v>
       </c>
       <c r="G133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -3808,7 +3805,7 @@
         <v>26</v>
       </c>
       <c r="G134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -3831,7 +3828,7 @@
         <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -3854,7 +3851,7 @@
         <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -3877,7 +3874,7 @@
         <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -3900,7 +3897,7 @@
         <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -3923,7 +3920,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -3946,7 +3943,7 @@
         <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -3969,7 +3966,7 @@
         <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -3986,13 +3983,13 @@
         <v>40177</v>
       </c>
       <c r="E142" t="s">
+        <v>102</v>
+      </c>
+      <c r="F142" t="s">
         <v>43</v>
       </c>
-      <c r="F142" t="s">
-        <v>44</v>
-      </c>
       <c r="G142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -4009,13 +4006,13 @@
         <v>40177</v>
       </c>
       <c r="E143" t="s">
+        <v>46</v>
+      </c>
+      <c r="F143" t="s">
         <v>47</v>
       </c>
-      <c r="F143" t="s">
-        <v>48</v>
-      </c>
       <c r="G143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -4032,13 +4029,13 @@
         <v>40177</v>
       </c>
       <c r="E144" t="s">
+        <v>48</v>
+      </c>
+      <c r="F144" t="s">
         <v>49</v>
       </c>
-      <c r="F144" t="s">
-        <v>50</v>
-      </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -4055,13 +4052,13 @@
         <v>40177</v>
       </c>
       <c r="E145" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F145" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -4078,13 +4075,13 @@
         <v>40177</v>
       </c>
       <c r="E146" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F146" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G146" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -4101,13 +4098,13 @@
         <v>40177</v>
       </c>
       <c r="E147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F147" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G147" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -4124,13 +4121,13 @@
         <v>40177</v>
       </c>
       <c r="E148" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F148" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G148" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -4147,13 +4144,13 @@
         <v>40177</v>
       </c>
       <c r="E149" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F149" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G149" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -4170,13 +4167,13 @@
         <v>39786</v>
       </c>
       <c r="E150" t="s">
+        <v>67</v>
+      </c>
+      <c r="F150" t="s">
         <v>68</v>
       </c>
-      <c r="F150" t="s">
-        <v>69</v>
-      </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -4199,7 +4196,7 @@
         <v>2</v>
       </c>
       <c r="G151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -4222,7 +4219,7 @@
         <v>4</v>
       </c>
       <c r="G152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -4245,7 +4242,7 @@
         <v>6</v>
       </c>
       <c r="G153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -4268,7 +4265,7 @@
         <v>8</v>
       </c>
       <c r="G154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -4291,7 +4288,7 @@
         <v>10</v>
       </c>
       <c r="G155" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -4314,7 +4311,7 @@
         <v>12</v>
       </c>
       <c r="G156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -4337,7 +4334,7 @@
         <v>14</v>
       </c>
       <c r="G157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -4360,7 +4357,7 @@
         <v>16</v>
       </c>
       <c r="G158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -4383,7 +4380,7 @@
         <v>18</v>
       </c>
       <c r="G159" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -4406,7 +4403,7 @@
         <v>20</v>
       </c>
       <c r="G160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -4429,7 +4426,7 @@
         <v>22</v>
       </c>
       <c r="G161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -4452,7 +4449,7 @@
         <v>24</v>
       </c>
       <c r="G162" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -4475,7 +4472,7 @@
         <v>26</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -4498,7 +4495,7 @@
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -4521,7 +4518,7 @@
         <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -4544,7 +4541,7 @@
         <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -4567,7 +4564,7 @@
         <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -4590,7 +4587,7 @@
         <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -4613,7 +4610,7 @@
         <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -4636,7 +4633,7 @@
         <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -4653,13 +4650,13 @@
         <v>39786</v>
       </c>
       <c r="E171" t="s">
+        <v>102</v>
+      </c>
+      <c r="F171" t="s">
         <v>43</v>
       </c>
-      <c r="F171" t="s">
-        <v>44</v>
-      </c>
       <c r="G171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -4676,13 +4673,13 @@
         <v>39786</v>
       </c>
       <c r="E172" t="s">
+        <v>46</v>
+      </c>
+      <c r="F172" t="s">
         <v>47</v>
       </c>
-      <c r="F172" t="s">
-        <v>48</v>
-      </c>
       <c r="G172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -4699,13 +4696,13 @@
         <v>39786</v>
       </c>
       <c r="E173" t="s">
+        <v>48</v>
+      </c>
+      <c r="F173" t="s">
         <v>49</v>
       </c>
-      <c r="F173" t="s">
-        <v>50</v>
-      </c>
       <c r="G173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -4722,13 +4719,13 @@
         <v>39786</v>
       </c>
       <c r="E174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F174" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G174" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -4745,13 +4742,13 @@
         <v>39786</v>
       </c>
       <c r="E175" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F175" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G175" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -4768,13 +4765,13 @@
         <v>39786</v>
       </c>
       <c r="E176" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F176" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G176" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -4791,13 +4788,13 @@
         <v>39698</v>
       </c>
       <c r="E177" t="s">
+        <v>67</v>
+      </c>
+      <c r="F177" t="s">
         <v>68</v>
       </c>
-      <c r="F177" t="s">
-        <v>69</v>
-      </c>
       <c r="G177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -4820,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -4843,7 +4840,7 @@
         <v>4</v>
       </c>
       <c r="G179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -4866,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="G180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -4889,7 +4886,7 @@
         <v>8</v>
       </c>
       <c r="G181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -4912,7 +4909,7 @@
         <v>10</v>
       </c>
       <c r="G182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -4935,7 +4932,7 @@
         <v>12</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -4958,7 +4955,7 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -4981,7 +4978,7 @@
         <v>16</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -5004,7 +5001,7 @@
         <v>18</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -5027,7 +5024,7 @@
         <v>20</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -5050,7 +5047,7 @@
         <v>22</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -5073,7 +5070,7 @@
         <v>24</v>
       </c>
       <c r="G189" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -5096,7 +5093,7 @@
         <v>26</v>
       </c>
       <c r="G190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -5119,7 +5116,7 @@
         <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -5142,7 +5139,7 @@
         <v>32</v>
       </c>
       <c r="G192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -5165,7 +5162,7 @@
         <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -5188,7 +5185,7 @@
         <v>36</v>
       </c>
       <c r="G194" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -5211,7 +5208,7 @@
         <v>38</v>
       </c>
       <c r="G195" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -5234,7 +5231,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -5257,7 +5254,7 @@
         <v>42</v>
       </c>
       <c r="G197" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -5274,13 +5271,13 @@
         <v>39698</v>
       </c>
       <c r="E198" t="s">
+        <v>102</v>
+      </c>
+      <c r="F198" t="s">
         <v>43</v>
       </c>
-      <c r="F198" t="s">
-        <v>44</v>
-      </c>
       <c r="G198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -5297,13 +5294,13 @@
         <v>39698</v>
       </c>
       <c r="E199" t="s">
+        <v>46</v>
+      </c>
+      <c r="F199" t="s">
         <v>47</v>
       </c>
-      <c r="F199" t="s">
-        <v>48</v>
-      </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -5320,13 +5317,13 @@
         <v>39698</v>
       </c>
       <c r="E200" t="s">
+        <v>48</v>
+      </c>
+      <c r="F200" t="s">
         <v>49</v>
       </c>
-      <c r="F200" t="s">
-        <v>50</v>
-      </c>
       <c r="G200" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -5343,13 +5340,13 @@
         <v>39698</v>
       </c>
       <c r="E201" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F201" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -5366,13 +5363,13 @@
         <v>39698</v>
       </c>
       <c r="E202" t="s">
+        <v>86</v>
+      </c>
+      <c r="F202" t="s">
         <v>88</v>
       </c>
-      <c r="F202" t="s">
-        <v>90</v>
-      </c>
       <c r="G202" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -5389,13 +5386,13 @@
         <v>39698</v>
       </c>
       <c r="E203" t="s">
+        <v>87</v>
+      </c>
+      <c r="F203" t="s">
         <v>89</v>
       </c>
-      <c r="F203" t="s">
-        <v>91</v>
-      </c>
       <c r="G203" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -5412,13 +5409,13 @@
         <v>39698</v>
       </c>
       <c r="E204" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F204" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G204" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -5435,13 +5432,13 @@
         <v>39698</v>
       </c>
       <c r="E205" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F205" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G205" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -5458,13 +5455,13 @@
         <v>39698</v>
       </c>
       <c r="E206" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F206" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G206" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -5481,13 +5478,13 @@
         <v>39339</v>
       </c>
       <c r="E207" t="s">
+        <v>67</v>
+      </c>
+      <c r="F207" t="s">
         <v>68</v>
       </c>
-      <c r="F207" t="s">
-        <v>69</v>
-      </c>
       <c r="G207" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -5510,7 +5507,7 @@
         <v>2</v>
       </c>
       <c r="G208" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -5533,7 +5530,7 @@
         <v>4</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -5556,7 +5553,7 @@
         <v>6</v>
       </c>
       <c r="G210" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -5579,7 +5576,7 @@
         <v>8</v>
       </c>
       <c r="G211" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -5602,7 +5599,7 @@
         <v>10</v>
       </c>
       <c r="G212" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -5625,7 +5622,7 @@
         <v>12</v>
       </c>
       <c r="G213" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -5648,7 +5645,7 @@
         <v>14</v>
       </c>
       <c r="G214" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -5671,7 +5668,7 @@
         <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -5694,7 +5691,7 @@
         <v>18</v>
       </c>
       <c r="G216" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -5717,7 +5714,7 @@
         <v>20</v>
       </c>
       <c r="G217" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -5740,7 +5737,7 @@
         <v>22</v>
       </c>
       <c r="G218" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -5763,7 +5760,7 @@
         <v>24</v>
       </c>
       <c r="G219" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -5786,7 +5783,7 @@
         <v>26</v>
       </c>
       <c r="G220" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -5809,7 +5806,7 @@
         <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -5832,7 +5829,7 @@
         <v>32</v>
       </c>
       <c r="G222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -5855,7 +5852,7 @@
         <v>34</v>
       </c>
       <c r="G223" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -5878,7 +5875,7 @@
         <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -5901,7 +5898,7 @@
         <v>38</v>
       </c>
       <c r="G225" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -5924,7 +5921,7 @@
         <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -5947,7 +5944,7 @@
         <v>42</v>
       </c>
       <c r="G227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -5964,13 +5961,13 @@
         <v>39339</v>
       </c>
       <c r="E228" t="s">
+        <v>102</v>
+      </c>
+      <c r="F228" t="s">
         <v>43</v>
       </c>
-      <c r="F228" t="s">
-        <v>44</v>
-      </c>
       <c r="G228" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -5987,13 +5984,13 @@
         <v>39339</v>
       </c>
       <c r="E229" t="s">
+        <v>46</v>
+      </c>
+      <c r="F229" t="s">
         <v>47</v>
       </c>
-      <c r="F229" t="s">
-        <v>48</v>
-      </c>
       <c r="G229" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -6010,13 +6007,13 @@
         <v>39339</v>
       </c>
       <c r="E230" t="s">
+        <v>48</v>
+      </c>
+      <c r="F230" t="s">
         <v>49</v>
       </c>
-      <c r="F230" t="s">
-        <v>50</v>
-      </c>
       <c r="G230" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -6033,13 +6030,13 @@
         <v>39339</v>
       </c>
       <c r="E231" t="s">
+        <v>86</v>
+      </c>
+      <c r="F231" t="s">
         <v>88</v>
       </c>
-      <c r="F231" t="s">
-        <v>90</v>
-      </c>
       <c r="G231" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -6056,13 +6053,13 @@
         <v>39339</v>
       </c>
       <c r="E232" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F232" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G232" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -6079,13 +6076,13 @@
         <v>39339</v>
       </c>
       <c r="E233" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F233" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G233" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -6102,13 +6099,13 @@
         <v>39339</v>
       </c>
       <c r="E234" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F234" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G234" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -6125,13 +6122,13 @@
         <v>39339</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F235" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G235" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -6148,13 +6145,13 @@
         <v>39339</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F236" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G236" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -6171,13 +6168,13 @@
         <v>39339</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F237" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G237" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -6194,13 +6191,13 @@
         <v>38685</v>
       </c>
       <c r="E238" t="s">
+        <v>67</v>
+      </c>
+      <c r="F238" t="s">
         <v>68</v>
       </c>
-      <c r="F238" t="s">
-        <v>69</v>
-      </c>
       <c r="G238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -6223,7 +6220,7 @@
         <v>4</v>
       </c>
       <c r="G239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -6246,7 +6243,7 @@
         <v>6</v>
       </c>
       <c r="G240" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -6269,7 +6266,7 @@
         <v>10</v>
       </c>
       <c r="G241" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -6292,7 +6289,7 @@
         <v>12</v>
       </c>
       <c r="G242" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -6315,7 +6312,7 @@
         <v>14</v>
       </c>
       <c r="G243" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -6338,7 +6335,7 @@
         <v>16</v>
       </c>
       <c r="G244" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -6361,7 +6358,7 @@
         <v>18</v>
       </c>
       <c r="G245" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -6384,7 +6381,7 @@
         <v>20</v>
       </c>
       <c r="G246" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -6407,7 +6404,7 @@
         <v>22</v>
       </c>
       <c r="G247" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -6430,7 +6427,7 @@
         <v>24</v>
       </c>
       <c r="G248" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
@@ -6453,7 +6450,7 @@
         <v>26</v>
       </c>
       <c r="G249" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
@@ -6476,7 +6473,7 @@
         <v>30</v>
       </c>
       <c r="G250" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -6499,7 +6496,7 @@
         <v>32</v>
       </c>
       <c r="G251" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
@@ -6522,7 +6519,7 @@
         <v>34</v>
       </c>
       <c r="G252" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -6545,7 +6542,7 @@
         <v>36</v>
       </c>
       <c r="G253" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -6568,7 +6565,7 @@
         <v>38</v>
       </c>
       <c r="G254" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
@@ -6591,7 +6588,7 @@
         <v>40</v>
       </c>
       <c r="G255" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -6614,7 +6611,7 @@
         <v>42</v>
       </c>
       <c r="G256" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -6631,13 +6628,13 @@
         <v>38685</v>
       </c>
       <c r="E257" t="s">
+        <v>48</v>
+      </c>
+      <c r="F257" t="s">
         <v>49</v>
       </c>
-      <c r="F257" t="s">
-        <v>50</v>
-      </c>
       <c r="G257" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -6654,13 +6651,13 @@
         <v>38685</v>
       </c>
       <c r="E258" t="s">
+        <v>98</v>
+      </c>
+      <c r="F258" t="s">
         <v>100</v>
       </c>
-      <c r="F258" t="s">
-        <v>102</v>
-      </c>
       <c r="G258" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -6677,13 +6674,13 @@
         <v>38685</v>
       </c>
       <c r="E259" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F259" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G259" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
@@ -6700,13 +6697,13 @@
         <v>38685</v>
       </c>
       <c r="E260" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F260" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G260" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -6723,13 +6720,13 @@
         <v>38685</v>
       </c>
       <c r="E261" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F261" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G261" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
